--- a/biology/Médecine/Comité_de_salubrité_(Révolution_française)/Comité_de_salubrité_(Révolution_française).xlsx
+++ b/biology/Médecine/Comité_de_salubrité_(Révolution_française)/Comité_de_salubrité_(Révolution_française).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_de_salubrit%C3%A9_(R%C3%A9volution_fran%C3%A7aise)</t>
+          <t>Comité_de_salubrité_(Révolution_française)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Comité de salubrité est une institution de l'Assemblée constituante de 1789, chargé de s'occuper de l'enseignement et de la pratique de la médecine, des établissements hospitaliers et sanitaires, et de l'hygiène publique. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_de_salubrit%C3%A9_(R%C3%A9volution_fran%C3%A7aise)</t>
+          <t>Comité_de_salubrité_(Révolution_française)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est créé sur l'initiative du docteur Joseph Ignace Guillotin et présidé par lui ; le bureau est installé au Couvent des Capucins Saint-Honoré, devenu bien national[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est créé sur l'initiative du docteur Joseph Ignace Guillotin et présidé par lui ; le bureau est installé au Couvent des Capucins Saint-Honoré, devenu bien national.
 Aux Archives nationales, il ne reste pas trace des travaux de cette commission ; le dossier est vide, et ne contient qu'une liste manuscrite des membres du comité.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_de_salubrit%C3%A9_(R%C3%A9volution_fran%C3%A7aise)</t>
+          <t>Comité_de_salubrité_(Révolution_française)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Comité se composait d'abord de tous les médecins députés à l'Assemblée nationale : 
 Joseph Ignace Guillotin, président ;
